--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -43,114 +43,111 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>grocery</t>
@@ -530,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7662337662337663</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5357142857142857</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4678111587982833</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>124</v>
+        <v>363</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3625</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3260869565217391</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2906976744186047</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,119 +917,71 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L9">
-        <v>42</v>
-      </c>
-      <c r="M9">
-        <v>42</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>85</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1397849462365591</v>
-      </c>
-      <c r="C11">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>160</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,21 +993,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7962962962962963</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,21 +1019,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,47 +1045,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L14">
+        <v>77</v>
+      </c>
+      <c r="M14">
+        <v>77</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>29</v>
-      </c>
-      <c r="K14">
-        <v>0.75</v>
-      </c>
-      <c r="L14">
-        <v>18</v>
-      </c>
-      <c r="M14">
-        <v>18</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7272727272727273</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.68125</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L17">
         <v>32</v>
       </c>
-      <c r="K17">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L17">
-        <v>41</v>
-      </c>
       <c r="M17">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L19">
         <v>34</v>
       </c>
-      <c r="K19">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L19">
-        <v>49</v>
-      </c>
       <c r="M19">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6428571428571429</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6384976525821596</v>
+        <v>0.566579634464752</v>
       </c>
       <c r="L22">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="M22">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5769230769230769</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5694444444444444</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L24">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5116279069767442</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L26">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4571428571428571</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4565217391304348</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,47 +1461,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.07692307692307693</v>
+        <v>0.390625</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.07575757575757576</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>183</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.06097560975609756</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1592,132 +1544,184 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.04458598726114649</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>300</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.0352112676056338</v>
+        <v>0.04806201550387597</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>411</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.02596239928379588</v>
+        <v>0.04036908881199539</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M35">
         <v>35</v>
       </c>
       <c r="N35">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1088</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.01284521515735389</v>
+        <v>0.03995560488346282</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N36">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1537</v>
+        <v>865</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.03281762775433662</v>
+      </c>
+      <c r="L37">
+        <v>70</v>
+      </c>
+      <c r="M37">
+        <v>80</v>
+      </c>
+      <c r="N37">
+        <v>0.88</v>
+      </c>
+      <c r="O37">
+        <v>0.12</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38">
+        <v>0.02716688227684347</v>
+      </c>
+      <c r="L38">
+        <v>84</v>
+      </c>
+      <c r="M38">
+        <v>99</v>
+      </c>
+      <c r="N38">
+        <v>0.85</v>
+      </c>
+      <c r="O38">
+        <v>0.15</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K37">
-        <v>0.009439899307740718</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37">
-        <v>23</v>
-      </c>
-      <c r="N37">
-        <v>0.65</v>
-      </c>
-      <c r="O37">
-        <v>0.35</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1574</v>
+      <c r="K39">
+        <v>0.0150564617314931</v>
+      </c>
+      <c r="L39">
+        <v>48</v>
+      </c>
+      <c r="M39">
+        <v>61</v>
+      </c>
+      <c r="N39">
+        <v>0.79</v>
+      </c>
+      <c r="O39">
+        <v>0.21</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3140</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -61,15 +58,18 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -82,16 +82,19 @@
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
@@ -100,27 +103,27 @@
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
@@ -133,19 +136,19 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>share</t>
   </si>
   <si>
     <t>shopping</t>
@@ -157,16 +160,16 @@
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -530,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6404109589041096</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2965116279069768</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2169312169312169</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1879194630872483</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,37 +902,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1428571428571428</v>
+        <v>0.06720430107526881</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +952,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +978,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7734375</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,13 +1004,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1027,13 +1030,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1053,13 +1056,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7264150943396226</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L14">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M14">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1079,13 +1082,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6984126984126984</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1105,13 +1108,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.68125</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1131,13 +1134,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6808510638297872</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1157,13 +1160,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6702127659574468</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1183,13 +1186,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1209,13 +1212,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6458333333333334</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1235,13 +1238,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1261,13 +1264,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.566579634464752</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L22">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1279,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1287,13 +1290,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5280898876404494</v>
+        <v>0.5613577023498695</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1313,13 +1316,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5058823529411764</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L24">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>168</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1339,13 +1342,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.4779661016949153</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L25">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="M25">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1365,13 +1368,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.4769230769230769</v>
+        <v>0.4949152542372882</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1391,13 +1394,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4383561643835616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1417,13 +1420,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4230769230769231</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1443,13 +1446,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4225941422594142</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L29">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1461,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>138</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1469,13 +1472,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.390625</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1495,13 +1498,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.07932692307692307</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>383</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1521,13 +1524,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.07894736842105263</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1547,13 +1550,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.07158836689038031</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>830</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1573,25 +1576,25 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.04806201550387597</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N34">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>614</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1599,13 +1602,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.04036908881199539</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1617,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>832</v>
+        <v>854</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1625,25 +1628,25 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.03995560488346282</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>865</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1651,13 +1654,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.03281762775433662</v>
+        <v>0.03563056727613689</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M37">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N37">
         <v>0.88</v>
@@ -1669,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2063</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1677,25 +1680,25 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.02716688227684347</v>
+        <v>0.03344867358708189</v>
       </c>
       <c r="L38">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3008</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1703,25 +1706,51 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.0150564617314931</v>
+        <v>0.02876535229476406</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="N39">
+        <v>0.87</v>
+      </c>
+      <c r="O39">
+        <v>0.13</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.01631628490743646</v>
+      </c>
+      <c r="L40">
+        <v>52</v>
+      </c>
+      <c r="M40">
+        <v>66</v>
+      </c>
+      <c r="N40">
         <v>0.79</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>0.21</v>
       </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3140</v>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,130 +49,133 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -602,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6301369863013698</v>
+        <v>0.678082191780822</v>
       </c>
       <c r="C4">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D4">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2965116279069768</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2222222222222222</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1879194630872483</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1071428571428571</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,95 +873,71 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.7931034482758621</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>46</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>46</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.06720430107526881</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>0.04</v>
-      </c>
-      <c r="F9">
-        <v>0.96</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>347</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L9">
-        <v>64</v>
-      </c>
-      <c r="M9">
-        <v>64</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +975,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7583333333333333</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1022,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L13">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7464788732394366</v>
+        <v>0.7421875</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1074,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7452830188679245</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,12 +1079,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.7254901960784313</v>
@@ -1131,16 +1110,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6458333333333334</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6190476190476191</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6063829787234043</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1230,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1256,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5777777777777777</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1282,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5613577023498695</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L23">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M23">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5168539325842697</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5147058823529411</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1360,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4949152542372882</v>
+        <v>0.4711864406779661</v>
       </c>
       <c r="L26">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M26">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1386,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4871794871794872</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1412,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4518828451882845</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L28">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4383561643835616</v>
+        <v>0.4393305439330544</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3714285714285714</v>
+        <v>0.4375</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1516,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.08173076923076923</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1542,47 +1521,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>382</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.07177033492822966</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.058165548098434</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L34">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1594,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>842</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.05216426193118757</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1620,137 +1599,189 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>854</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.04776579352850539</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>618</v>
+        <v>844</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.03563056727613689</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="L37">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2057</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.03344867358708189</v>
+        <v>0.0500701918577445</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>838</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.02876535229476406</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L39">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3005</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.03782735208535402</v>
+      </c>
+      <c r="L40">
+        <v>117</v>
+      </c>
+      <c r="M40">
+        <v>131</v>
+      </c>
+      <c r="N40">
+        <v>0.89</v>
+      </c>
+      <c r="O40">
+        <v>0.11</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K40">
-        <v>0.01631628490743646</v>
-      </c>
-      <c r="L40">
-        <v>52</v>
-      </c>
-      <c r="M40">
-        <v>66</v>
-      </c>
-      <c r="N40">
-        <v>0.79</v>
-      </c>
-      <c r="O40">
-        <v>0.21</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3135</v>
+      <c r="K41">
+        <v>0.02688728024819028</v>
+      </c>
+      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>0.96</v>
+      </c>
+      <c r="O41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.02164366373902133</v>
+      </c>
+      <c r="L42">
+        <v>69</v>
+      </c>
+      <c r="M42">
+        <v>82</v>
+      </c>
+      <c r="N42">
+        <v>0.84</v>
+      </c>
+      <c r="O42">
+        <v>0.16</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3119</v>
       </c>
     </row>
   </sheetData>
